--- a/PangkalanData/public/Template/Template Kamus Ensiklopedia.xlsx
+++ b/PangkalanData/public/Template/Template Kamus Ensiklopedia.xlsx
@@ -114,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -152,14 +152,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,87 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,8 +235,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -281,7 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,13 +326,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,163 +476,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +590,69 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,30 +681,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -652,192 +691,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -850,8 +850,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/PangkalanData/public/Template/Template Kamus Ensiklopedia.xlsx
+++ b/PangkalanData/public/Template/Template Kamus Ensiklopedia.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="18468" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <t>Harus Memilih dari Daftar (Dropdown)</t>
   </si>
   <si>
-    <t>Daftar Pilihan</t>
+    <t>Daftar Kategori</t>
   </si>
   <si>
     <t>KAMUS</t>
@@ -85,7 +85,7 @@
     <t>LEMA</t>
   </si>
   <si>
-    <t>Daftar Pilihan 2</t>
+    <t>Daftar Lingkup</t>
   </si>
   <si>
     <t>DAERAH</t>
@@ -97,7 +97,7 @@
     <t>INTERNASIONAL</t>
   </si>
   <si>
-    <t>Daftar Pilihan 3</t>
+    <t>Daftar Info Produk</t>
   </si>
   <si>
     <t>Produk Pusat</t>
@@ -114,12 +114,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -143,6 +143,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -150,8 +166,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -167,15 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,23 +221,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,38 +235,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,181 +320,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,11 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,17 +663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,8 +675,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,148 +696,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -850,8 +850,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1219,7 +1219,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1358,7 +1358,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="5"/>
     </row>
-    <row r="16" ht="15.15" spans="1:1">
+    <row r="16" spans="1:1">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
     </row>
     <row r="22" ht="15.15"/>
-    <row r="23" ht="15.15" spans="1:1">
+    <row r="23" spans="1:1">
       <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="27" ht="15.15"/>
-    <row r="28" ht="15.15" spans="1:1">
+    <row r="28" spans="1:1">
       <c r="A28" s="18" t="s">
         <v>27</v>
       </c>
@@ -1448,8 +1448,7 @@
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
   </mergeCells>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="D1:D2;I1:I2;M1:M2"/>
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Memilih dari Daftar" sqref="M3:M1048576">
       <formula1>$A$29:$A$31</formula1>
     </dataValidation>
